--- a/data/trans_orig/P74B2S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{940E6D74-6709-4B21-8288-E3D40F477DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E75BE89-79CC-4EAC-AD79-9E65A04866A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D19B3727-4685-41CB-8CE2-3EB09EBF48D1}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9802866-252E-42AC-9B16-CE2D740E6DA7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C33306C0-BE8C-4829-A1BF-684CC6C9E3AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE52A486-2CDC-419C-9CF8-CB4D6EBF2EDE}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P74B2S3-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P74B2S3-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E75BE89-79CC-4EAC-AD79-9E65A04866A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E43875E-D110-4B2E-A2CC-F59D8AA60BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B9802866-252E-42AC-9B16-CE2D740E6DA7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4C40DA0F-437B-463C-A743-4D39E64C96E3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -501,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE52A486-2CDC-419C-9CF8-CB4D6EBF2EDE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CC6699-3220-4B84-BBD0-E5B869B80EF9}">
   <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
